--- a/biology/Botanique/×Festulolium/×Festulolium.xlsx
+++ b/biology/Botanique/×Festulolium/×Festulolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%97Festulolium</t>
+          <t>×Festulolium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">×Festulolium  est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae. C'est un nothogenre regroupant des hybrides issus de croisements entre des espèces des genres Festuca et Lolium, appartenant tous deux à la sous-tribu des Loliinae.
-Une quarantaine de cultivars de ×Festulolium sont enregistrés au catalogue européen des variétés[2] et plus de 10 au catalogue officiel français[3].
+Une quarantaine de cultivars de ×Festulolium sont enregistrés au catalogue européen des variétés et plus de 10 au catalogue officiel français.
 .
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%97Festulolium</t>
+          <t>×Festulolium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (21 septembre 2016)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (21 septembre 2016) :
 ×Festulolium braunii (K.Richt.) A.Camus
 ×Festulolium brinkmannii (A.Braun) Asch. &amp; Graebn.
 ×Festulolium fredericii Cugnac &amp; A.Camus
